--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utaedu-my.sharepoint.com/personal/fsanchez2858_uta_edu_ec/Documents/Proyecto Moviles 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{979D5EAD-C61F-4A74-8321-1D51C67FE38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1D7429-C3AA-4EA2-86B8-AAFEE72C1C9F}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{979D5EAD-C61F-4A74-8321-1D51C67FE38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C0922A-A8CC-4504-A16C-331A59F1604C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{54C31D5D-E64C-4AE5-9EC1-1267E7C37256}"/>
+    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{54C31D5D-E64C-4AE5-9EC1-1267E7C37256}"/>
   </bookViews>
   <sheets>
     <sheet name="Df, R(s), g" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>Edificio</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>conectores</t>
+  </si>
+  <si>
+    <t>Sucursal 5</t>
+  </si>
+  <si>
+    <t>Matriz – Sucursal 5</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -802,11 +808,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,9 +964,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1052,17 +1092,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,19 +1201,9 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.3547275728796912E-2"/>
-          <c:y val="0.12330640567602337"/>
-          <c:w val="0.90779600999158616"/>
-          <c:h val="0.74421107033805045"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1348,10 +1387,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D08-40CB-9296-07590E72EF71}"/>
+              <c16:uniqueId val="{00000000-7781-464C-82A1-89B39A8A8D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1537,10 +1576,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D08-40CB-9296-07590E72EF71}"/>
+              <c16:uniqueId val="{00000001-7781-464C-82A1-89B39A8A8D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1726,10 +1765,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4D08-40CB-9296-07590E72EF71}"/>
+              <c16:uniqueId val="{00000002-7781-464C-82A1-89B39A8A8D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1915,10 +1954,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4D08-40CB-9296-07590E72EF71}"/>
+              <c16:uniqueId val="{00000003-7781-464C-82A1-89B39A8A8D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2104,10 +2143,199 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4D08-40CB-9296-07590E72EF71}"/>
+              <c16:uniqueId val="{00000004-7781-464C-82A1-89B39A8A8D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Demanda futura'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sucursal 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Demanda futura'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Demanda futura'!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.127500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.733875000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.37056875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.039097187500001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.741052046875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.478104649218754</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.252009881679687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.064610375763674</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.917840894551858</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.813732939279451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.754419586243422</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.742140565555594</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.779247593833372</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.868209973525047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.011620472201297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.212201495811364</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.472811570601934</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.79645214913203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.186274756588631</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7781-464C-82A1-89B39A8A8D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2119,11 +2347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="895386799"/>
-        <c:axId val="1059098783"/>
+        <c:axId val="309367120"/>
+        <c:axId val="421933680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="895386799"/>
+        <c:axId val="309367120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,12 +2408,12 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1059098783"/>
+        <c:crossAx val="421933680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1059098783"/>
+        <c:axId val="421933680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2470,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="895386799"/>
+        <c:crossAx val="309367120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2890,22 +3118,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:colOff>757237</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE22087F-915C-5AF1-DB8C-232F9F2486D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76445DCA-C5BF-EC92-C20F-6E78ABD7CD27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2924,6 +3152,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3223,10 +3455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD7BF8F-0B3C-42A4-8D66-D42E7226B030}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="38">
-        <f t="shared" ref="C3:E6" si="1">B3*(1+0.05)^5</f>
+        <f t="shared" ref="C3:E7" si="1">B3*(1+0.05)^5</f>
         <v>16.5916603125</v>
       </c>
       <c r="D3" s="38">
@@ -3313,7 +3545,7 @@
         <v>24.323459699113005</v>
       </c>
       <c r="G3" s="40">
-        <f t="shared" ref="G3:G7" si="3">ROUND(B3,0)/ROUND(F3,0)</f>
+        <f t="shared" ref="G3:G8" si="3">ROUND(B3,0)/ROUND(F3,0)</f>
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -3401,36 +3633,65 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="90">
+        <v>11</v>
+      </c>
+      <c r="C7" s="91">
+        <f t="shared" si="1"/>
+        <v>14.039097187500001</v>
+      </c>
+      <c r="D7" s="91">
+        <f t="shared" si="1"/>
+        <v>17.917840894551858</v>
+      </c>
+      <c r="E7" s="91">
+        <f t="shared" si="1"/>
+        <v>22.868209973525047</v>
+      </c>
+      <c r="F7" s="92">
+        <f>0.9*E7</f>
+        <v>20.581388976172544</v>
+      </c>
+      <c r="G7" s="93">
+        <f t="shared" si="3"/>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="41">
-        <f>B6+B5+B4+B3+B2</f>
-        <v>106</v>
-      </c>
-      <c r="C7" s="42">
-        <f t="shared" ref="C7:E7" si="4">C6+C5+C4+C3+C2</f>
-        <v>135.28584562500001</v>
-      </c>
-      <c r="D7" s="42">
+      <c r="B8" s="41">
+        <f t="shared" ref="B8:D8" si="4">B6+B5+B4+B3+B2+B7</f>
+        <v>117</v>
+      </c>
+      <c r="C8" s="41">
         <f t="shared" si="4"/>
-        <v>172.66283043840883</v>
-      </c>
-      <c r="E7" s="42">
+        <v>149.32494281250001</v>
+      </c>
+      <c r="D8" s="41">
         <f t="shared" si="4"/>
-        <v>220.36638701760501</v>
-      </c>
-      <c r="F7" s="43">
-        <f>0.9*E7</f>
-        <v>198.32974831584451</v>
-      </c>
-      <c r="G7" s="44">
+        <v>190.58067133296069</v>
+      </c>
+      <c r="E8" s="41">
+        <f>E6+E5+E4+E3+E2+E7</f>
+        <v>243.23459699113005</v>
+      </c>
+      <c r="F8" s="42">
+        <f>0.9*E8</f>
+        <v>218.91113729201706</v>
+      </c>
+      <c r="G8" s="43">
         <f t="shared" si="3"/>
-        <v>0.53535353535353536</v>
+        <v>0.53424657534246578</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3438,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B4B9D9-233A-4166-A9FB-5BE3AD4DB8CB}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,27 +3712,30 @@
     <col min="3" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>2023</v>
       </c>
@@ -3479,28 +3743,32 @@
         <f>'Df, R(s), g'!B2</f>
         <v>37</v>
       </c>
-      <c r="C2" s="84">
+      <c r="C2" s="83">
         <f>'Df, R(s), g'!B3</f>
         <v>13</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="83">
         <f>'Df, R(s), g'!B4</f>
         <v>19</v>
       </c>
-      <c r="E2" s="84">
+      <c r="E2" s="83">
         <f>'Df, R(s), g'!B5</f>
         <v>10</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="84">
         <f>'Df, R(s), g'!B6</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>'Df, R(s), g'!B7</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2024</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="81">
         <f>$B$2*(1+0.05)^(A3-$A$2)</f>
         <v>38.85</v>
       </c>
@@ -3516,17 +3784,21 @@
         <f>$E$2*(1+0.05)^(A3-$A$2)</f>
         <v>10.5</v>
       </c>
-      <c r="F3" s="80">
+      <c r="F3" s="79">
         <f>$F$2*(1+0.05)^(A3-$A$2)</f>
         <v>28.35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="79">
+        <f>$G$2*(1+0.05)^(A3-$A$2)</f>
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>2025</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="81">
         <f t="shared" ref="B4:B22" si="1">$B$2*(1+0.05)^(A4-$A$2)</f>
         <v>40.792500000000004</v>
       </c>
@@ -3542,17 +3814,21 @@
         <f t="shared" ref="E4:E22" si="4">$E$2*(1+0.05)^(A4-$A$2)</f>
         <v>11.025</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="79">
         <f t="shared" ref="F4:F21" si="5">$F$2*(1+0.05)^(A4-$A$2)</f>
         <v>29.767500000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="79">
+        <f t="shared" ref="G4:G22" si="6">$G$2*(1+0.05)^(A4-$A$2)</f>
+        <v>12.127500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="81">
         <f t="shared" si="1"/>
         <v>42.832125000000005</v>
       </c>
@@ -3568,17 +3844,21 @@
         <f t="shared" si="4"/>
         <v>11.576250000000002</v>
       </c>
-      <c r="F5" s="80">
+      <c r="F5" s="79">
         <f t="shared" si="5"/>
         <v>31.255875000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="79">
+        <f t="shared" si="6"/>
+        <v>12.733875000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="81">
         <f t="shared" si="1"/>
         <v>44.97373125</v>
       </c>
@@ -3594,17 +3874,21 @@
         <f t="shared" si="4"/>
         <v>12.1550625</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="79">
         <f t="shared" si="5"/>
         <v>32.818668750000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="79">
+        <f t="shared" si="6"/>
+        <v>13.37056875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="81">
         <f t="shared" si="1"/>
         <v>47.222417812500005</v>
       </c>
@@ -3620,17 +3904,21 @@
         <f t="shared" si="4"/>
         <v>12.762815625000002</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="79">
         <f t="shared" si="5"/>
         <v>34.459602187500003</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="79">
+        <f t="shared" si="6"/>
+        <v>14.039097187500001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="81">
         <f t="shared" si="1"/>
         <v>49.583538703125001</v>
       </c>
@@ -3646,17 +3934,21 @@
         <f t="shared" si="4"/>
         <v>13.40095640625</v>
       </c>
-      <c r="F8" s="80">
+      <c r="F8" s="79">
         <f t="shared" si="5"/>
         <v>36.182582296874997</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="79">
+        <f t="shared" si="6"/>
+        <v>14.741052046875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="81">
         <f t="shared" si="1"/>
         <v>52.062715638281261</v>
       </c>
@@ -3672,17 +3964,21 @@
         <f t="shared" si="4"/>
         <v>14.071004226562502</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="79">
         <f t="shared" si="5"/>
         <v>37.991711411718754</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="79">
+        <f t="shared" si="6"/>
+        <v>15.478104649218754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="81">
         <f t="shared" si="1"/>
         <v>54.665851420195317</v>
       </c>
@@ -3698,17 +3994,21 @@
         <f t="shared" si="4"/>
         <v>14.774554437890625</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="79">
         <f t="shared" si="5"/>
         <v>39.891296982304688</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="79">
+        <f t="shared" si="6"/>
+        <v>16.252009881679687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="81">
         <f t="shared" si="1"/>
         <v>57.399143991205086</v>
       </c>
@@ -3724,17 +4024,21 @@
         <f t="shared" si="4"/>
         <v>15.513282159785158</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="79">
         <f t="shared" si="5"/>
         <v>41.885861831419923</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="79">
+        <f t="shared" si="6"/>
+        <v>17.064610375763674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="81">
         <f t="shared" si="1"/>
         <v>60.26910119076534</v>
       </c>
@@ -3750,17 +4054,21 @@
         <f t="shared" si="4"/>
         <v>16.288946267774417</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="79">
         <f t="shared" si="5"/>
         <v>43.98015492299092</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="79">
+        <f t="shared" si="6"/>
+        <v>17.917840894551858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
-        <f t="shared" ref="A13:A21" si="6">A12+1</f>
+        <f t="shared" ref="A13:A21" si="7">A12+1</f>
         <v>2034</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="81">
         <f t="shared" si="1"/>
         <v>63.282556250303607</v>
       </c>
@@ -3776,17 +4084,21 @@
         <f t="shared" si="4"/>
         <v>17.103393581163139</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="79">
         <f t="shared" si="5"/>
         <v>46.179162669140474</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="79">
+        <f t="shared" si="6"/>
+        <v>18.813732939279451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2035</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="81">
         <f t="shared" si="1"/>
         <v>66.446684062818775</v>
       </c>
@@ -3802,17 +4114,21 @@
         <f t="shared" si="4"/>
         <v>17.958563260221293</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="79">
         <f t="shared" si="5"/>
         <v>48.488120802597486</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="79">
+        <f t="shared" si="6"/>
+        <v>19.754419586243422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2036</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="81">
         <f t="shared" si="1"/>
         <v>69.76901826595973</v>
       </c>
@@ -3828,17 +4144,21 @@
         <f t="shared" si="4"/>
         <v>18.856491423232359</v>
       </c>
-      <c r="F15" s="80">
+      <c r="F15" s="79">
         <f t="shared" si="5"/>
         <v>50.912526842727374</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="79">
+        <f t="shared" si="6"/>
+        <v>20.742140565555594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2037</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="81">
         <f t="shared" si="1"/>
         <v>73.257469179257697</v>
       </c>
@@ -3854,17 +4174,21 @@
         <f t="shared" si="4"/>
         <v>19.799315994393972</v>
       </c>
-      <c r="F16" s="80">
+      <c r="F16" s="79">
         <f t="shared" si="5"/>
         <v>53.458153184863725</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="79">
+        <f t="shared" si="6"/>
+        <v>21.779247593833372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2038</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B17" s="81">
         <f t="shared" si="1"/>
         <v>76.920342638220617</v>
       </c>
@@ -3880,17 +4204,21 @@
         <f t="shared" si="4"/>
         <v>20.789281794113677</v>
       </c>
-      <c r="F17" s="80">
+      <c r="F17" s="79">
         <f t="shared" si="5"/>
         <v>56.131060844106933</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="79">
+        <f t="shared" si="6"/>
+        <v>22.868209973525047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2039</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B18" s="81">
         <f t="shared" si="1"/>
         <v>80.766359770131629</v>
       </c>
@@ -3906,17 +4234,21 @@
         <f t="shared" si="4"/>
         <v>21.828745883819359</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="79">
         <f t="shared" si="5"/>
         <v>58.93761388631227</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="79">
+        <f t="shared" si="6"/>
+        <v>24.011620472201297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f>A18+1</f>
         <v>2040</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="81">
         <f t="shared" si="1"/>
         <v>84.804677758638221</v>
       </c>
@@ -3932,17 +4264,21 @@
         <f t="shared" si="4"/>
         <v>22.920183178010333</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="79">
         <f t="shared" si="5"/>
         <v>61.884494580627894</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="79">
+        <f t="shared" si="6"/>
+        <v>25.212201495811364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2041</v>
       </c>
-      <c r="B20" s="82">
+      <c r="B20" s="81">
         <f t="shared" si="1"/>
         <v>89.044911646570142</v>
       </c>
@@ -3958,17 +4294,21 @@
         <f t="shared" si="4"/>
         <v>24.066192336910849</v>
       </c>
-      <c r="F20" s="80">
+      <c r="F20" s="79">
         <f t="shared" si="5"/>
         <v>64.978719309659283</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="79">
+        <f t="shared" si="6"/>
+        <v>26.472811570601934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2042</v>
       </c>
-      <c r="B21" s="82">
+      <c r="B21" s="81">
         <f t="shared" si="1"/>
         <v>93.497157228898644</v>
       </c>
@@ -3984,17 +4324,21 @@
         <f t="shared" si="4"/>
         <v>25.269501953756389</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="79">
         <f t="shared" si="5"/>
         <v>68.227655275142254</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="79">
+        <f t="shared" si="6"/>
+        <v>27.79645214913203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f>A21+1</f>
         <v>2043</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="82">
         <f t="shared" si="1"/>
         <v>98.172015090343578</v>
       </c>
@@ -4010,12 +4354,17 @@
         <f t="shared" si="4"/>
         <v>26.53297705144421</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="80">
         <f>$F$2*(1+0.05)^(A22-$A$2)</f>
         <v>71.639038038899358</v>
       </c>
+      <c r="G22" s="79">
+        <f t="shared" si="6"/>
+        <v>29.186274756588631</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4023,10 +4372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B21B199-9058-444E-BCA1-792BF503B8A3}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="H1" sqref="H1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4035,19 +4384,20 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4059,218 +4409,251 @@
       <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="H1" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="46">
         <v>1</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <f>$B2*'Df, R(s), g'!$B2</f>
         <v>37</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="56">
         <f>$B2*'Df, R(s), g'!$B$3</f>
         <v>13</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="60">
         <f>$B2*'Df, R(s), g'!$B$4</f>
         <v>19</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="51">
         <f>$B2*'Df, R(s), g'!$B$5</f>
         <v>10</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="51">
         <f>$B2*'Df, R(s), g'!$B$6</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="51">
+        <f>$B2*'Df, R(s), g'!$B$7</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="47">
         <v>10</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="57">
         <f>$B3*'Df, R(s), g'!$B$2</f>
         <v>370</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="57">
         <f>$B3*'Df, R(s), g'!$B$3</f>
         <v>130</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="61">
         <f>$B3*'Df, R(s), g'!$B$4</f>
         <v>190</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="52">
         <f>$B3*'Df, R(s), g'!$B$5</f>
         <v>100</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="52">
         <f>$B3*'Df, R(s), g'!$B$6</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="52">
+        <f>$B3*'Df, R(s), g'!$B$7</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="47">
         <v>1</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="57">
         <f>$B4*'Df, R(s), g'!$B$2</f>
         <v>37</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="57">
         <f>$B4*'Df, R(s), g'!$B$3</f>
         <v>13</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="61">
         <f>$B4*'Df, R(s), g'!$B$4</f>
         <v>19</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="52">
         <f>$B4*'Df, R(s), g'!$B$5</f>
         <v>10</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="52">
         <f>$B4*'Df, R(s), g'!$B$6</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="H4" s="52">
+        <f>$B4*'Df, R(s), g'!$B$7</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="47">
         <v>1.5</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="57">
         <f>$B5*'Df, R(s), g'!$B$2</f>
         <v>55.5</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="57">
         <f>$B5*'Df, R(s), g'!$B$3</f>
         <v>19.5</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="61">
         <f>$B5*'Df, R(s), g'!$B$4</f>
         <v>28.5</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="52">
         <f>$B5*'Df, R(s), g'!$B$5</f>
         <v>15</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="52">
         <f>$B5*'Df, R(s), g'!$B$6</f>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="H5" s="52">
+        <f>$B5*'Df, R(s), g'!$B$7</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>4</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="57">
         <f>$B6*'Df, R(s), g'!$B$2</f>
         <v>148</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="57">
         <f>$B6*'Df, R(s), g'!$B$3</f>
         <v>52</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="61">
         <f>$B6*'Df, R(s), g'!$B$4</f>
         <v>76</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="52">
         <f>$B6*'Df, R(s), g'!$B$5</f>
         <v>40</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="52">
         <f>$B6*'Df, R(s), g'!$B$6</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="52">
+        <f>$B6*'Df, R(s), g'!$B$7</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="58">
+      <c r="B7" s="47"/>
+      <c r="C7" s="57">
         <v>35</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="57">
         <v>18</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="61">
         <v>22</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="52">
         <v>18</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="52">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="52">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="49">
         <v>0.14399999999999999</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="58">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="58">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="62">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="53">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="53">
         <v>0.14399999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="H8" s="53">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="50">
         <f t="shared" ref="B9:G9" si="0">SUM(B2:B8)</f>
         <v>17.643999999999998</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="59">
         <f t="shared" si="0"/>
         <v>682.64400000000001</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="59">
         <f t="shared" si="0"/>
         <v>245.64400000000001</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <f t="shared" si="0"/>
         <v>354.64400000000001</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="54">
         <f t="shared" si="0"/>
         <v>193.14400000000001</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="54">
         <f t="shared" si="0"/>
         <v>498.64400000000001</v>
+      </c>
+      <c r="H9" s="54">
+        <f t="shared" ref="H9" si="1">SUM(H2:H8)</f>
+        <v>213.54400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4325,118 +4708,118 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="69">
         <v>269.95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="69">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="69">
         <v>156.94999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="69">
         <v>179.95</v>
       </c>
     </row>
@@ -4452,19 +4835,19 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="75" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="4"/>
@@ -4473,19 +4856,19 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="77">
         <v>106.95</v>
       </c>
       <c r="F8" s="4"/>
@@ -4494,19 +4877,19 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="77">
         <v>129.94999999999999</v>
       </c>
       <c r="F9" s="4"/>
@@ -4515,19 +4898,19 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="77">
         <v>157.94999999999999</v>
       </c>
       <c r="F10" s="4"/>
@@ -4606,11 +4989,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="3">
         <f>SUM(D13:D15)</f>
         <v>1547.5</v>
@@ -4627,10 +5010,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D60025-EE90-4D0B-BDA6-D7C5C26E3883}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,48 +5025,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="92"/>
+      <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="88">
         <v>2.83</v>
       </c>
-      <c r="C2" s="90">
+      <c r="C2" s="88">
         <f>0.35*B2</f>
         <v>0.99049999999999994</v>
       </c>
-      <c r="D2" s="92">
+      <c r="D2" s="89">
         <v>1</v>
       </c>
-      <c r="E2" s="92">
+      <c r="E2" s="89">
         <f>D2*0.1</f>
         <v>0.1</v>
       </c>
-      <c r="F2" s="92">
+      <c r="F2" s="89">
         <v>2</v>
       </c>
-      <c r="G2" s="92">
+      <c r="G2" s="89">
         <f>0.25*F2</f>
         <v>0.5</v>
       </c>
@@ -4693,57 +5076,57 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="90">
+      <c r="B3" s="88">
         <v>2.12</v>
       </c>
-      <c r="C3" s="90">
-        <f t="shared" ref="C3:C6" si="0">0.35*B3</f>
+      <c r="C3" s="88">
+        <f t="shared" ref="C3:C7" si="0">0.35*B3</f>
         <v>0.74199999999999999</v>
       </c>
-      <c r="D3" s="92">
+      <c r="D3" s="89">
         <v>1</v>
       </c>
-      <c r="E3" s="92">
-        <f t="shared" ref="E3:E6" si="1">D3*0.1</f>
+      <c r="E3" s="89">
+        <f t="shared" ref="E3:E7" si="1">D3*0.1</f>
         <v>0.1</v>
       </c>
-      <c r="F3" s="92">
+      <c r="F3" s="89">
         <v>2</v>
       </c>
-      <c r="G3" s="92">
-        <f t="shared" ref="G3:G6" si="2">0.25*F3</f>
+      <c r="G3" s="89">
+        <f t="shared" ref="G3:G7" si="2">0.25*F3</f>
         <v>0.5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H6" si="3">0.3*B3</f>
+        <f t="shared" ref="H3:H7" si="3">0.3*B3</f>
         <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="90">
+      <c r="B4" s="88">
         <v>2.66</v>
       </c>
-      <c r="C4" s="90">
+      <c r="C4" s="88">
         <f t="shared" si="0"/>
         <v>0.93099999999999994</v>
       </c>
-      <c r="D4" s="92">
+      <c r="D4" s="89">
         <v>1</v>
       </c>
-      <c r="E4" s="92">
+      <c r="E4" s="89">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="89">
         <v>2</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="89">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -4753,27 +5136,27 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="88">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="90">
+      <c r="C5" s="88">
         <f t="shared" si="0"/>
         <v>0.38500000000000001</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="89">
         <v>1</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="89">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="89">
         <v>2</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="89">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -4783,72 +5166,103 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="88">
+        <v>0.71</v>
+      </c>
+      <c r="C6" s="88">
+        <f t="shared" si="0"/>
+        <v>0.24849999999999997</v>
+      </c>
+      <c r="D6" s="89">
+        <v>1</v>
+      </c>
+      <c r="E6" s="89">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="89">
+        <v>2</v>
+      </c>
+      <c r="G6" s="89">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B7" s="88">
         <v>0.74</v>
       </c>
-      <c r="C6" s="90">
+      <c r="C7" s="88">
         <f t="shared" si="0"/>
         <v>0.25900000000000001</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D7" s="89">
         <v>12</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E7" s="89">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F7" s="89">
         <v>13</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G7" s="89">
         <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <f t="shared" si="3"/>
         <v>0.222</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f>B2+B3+B4+B5+B6</f>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>B2+B3+B4+B5+B7</f>
         <v>9.4500000000000011</v>
       </c>
-      <c r="C7">
-        <f t="shared" ref="C7:H7" si="4">C2+C3+C4+C5+C6</f>
+      <c r="C8">
+        <f>C2+C3+C4+C5+C7</f>
         <v>3.3074999999999997</v>
       </c>
-      <c r="D7">
+      <c r="D8">
+        <f t="shared" ref="D8:G8" si="4">D2+D3+D4+D5+D7+D6</f>
+        <v>17</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="E7">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="4"/>
-        <v>1.6</v>
-      </c>
-      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>5.25</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="4"/>
-        <v>2.835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <f>C7+E7+G7+H7</f>
-        <v>12.9925</v>
+        <v>5.75</v>
+      </c>
+      <c r="H8">
+        <f>H2+H3+H4+H5+H7+H6</f>
+        <v>3.048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>C8+E8+G8+H8</f>
+        <v>13.8055</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>